--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Reception cahier des charges et planification</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Nb. de café</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -186,6 +198,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,10 +487,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -484,10 +499,11 @@
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="68" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="29.85546875" style="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="29.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -500,8 +516,11 @@
       <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -511,9 +530,14 @@
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -522,8 +546,9 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -532,8 +557,9 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -542,8 +568,9 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -552,8 +579,9 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -562,8 +590,9 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -572,8 +601,9 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -582,8 +612,9 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -592,8 +623,9 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -602,8 +634,9 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -612,8 +645,9 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -622,8 +656,9 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -632,8 +667,9 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -642,8 +678,9 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -652,8 +689,9 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -662,8 +700,9 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -672,8 +711,9 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -682,8 +722,9 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -692,8 +733,9 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
@@ -702,8 +744,9 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -712,8 +755,9 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -722,8 +766,9 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -732,8 +777,9 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -742,8 +788,9 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -752,8 +799,9 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -762,8 +810,9 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -772,8 +821,9 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
@@ -782,8 +832,9 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -792,8 +843,9 @@
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -802,8 +854,9 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>6</v>
       </c>
@@ -812,8 +865,9 @@
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -822,8 +876,9 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -832,8 +887,9 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
@@ -842,8 +898,9 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>10</v>
       </c>
@@ -852,8 +909,9 @@
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -862,6 +920,7 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="8"/>
+      <c r="E37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,9 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -59,13 +59,16 @@
     <t>Dimanche</t>
   </si>
   <si>
-    <t>Reception cahier des charges et planification</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Nb. de café</t>
+  </si>
+  <si>
+    <t>Avancment du rapport, pré-étude, choix des composants (MCU, IMU, GNSS, Carte SD).</t>
+  </si>
+  <si>
+    <t>Reception cahier des charges et planification.</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -517,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -528,10 +531,10 @@
         <v>45145</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="15">
         <v>5</v>
@@ -544,10 +547,14 @@
       <c r="B3" s="5">
         <v>45146</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -65,10 +65,10 @@
     <t>Nb. de café</t>
   </si>
   <si>
-    <t>Avancment du rapport, pré-étude, choix des composants (MCU, IMU, GNSS, Carte SD).</t>
-  </si>
-  <si>
     <t>Reception cahier des charges et planification.</t>
+  </si>
+  <si>
+    <t>Avancement du rapport, pré-étude, choix des composants (MCU, IMU, GNSS, Carte SD).</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>45145</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
@@ -548,7 +548,7 @@
         <v>45146</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>11</v>

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -493,7 +493,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -565,8 +565,12 @@
         <v>45147</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Avancement du rapport, pré-étude, choix des composants (MCU, IMU, GNSS, Carte SD).</t>
+  </si>
+  <si>
+    <t>Avancement du rapport, pré-étude, batterie, estimation des couts, conclusion de la pré-étude. Avancement du schéma.</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -564,7 +567,9 @@
       <c r="B4" s="5">
         <v>45147</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
@@ -580,8 +585,12 @@
         <v>45148</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Avancement du rapport, pré-étude, batterie, estimation des couts, conclusion de la pré-étude. Avancement du schéma.</t>
+  </si>
+  <si>
+    <t>Avancée sur le schéma, rédaction de l'étude et préparation du PCB.</t>
+  </si>
+  <si>
+    <t>Rédaction de l'étude, correction du schéma et mécanique.</t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -584,7 +590,9 @@
       <c r="B5" s="5">
         <v>45148</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
@@ -599,9 +607,15 @@
       <c r="B6" s="5">
         <v>45149</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -502,7 +502,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,8 +647,12 @@
         <v>45152</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Rédaction de l'étude, correction du schéma et mécanique.</t>
+  </si>
+  <si>
+    <t>Revue schéma et réunion avec Mr. Moreno. Début du routage du PCB.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -646,12 +649,14 @@
       <c r="B9" s="5">
         <v>45152</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>DATE</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Revue schéma et réunion avec Mr. Moreno. Début du routage du PCB.</t>
+  </si>
+  <si>
+    <t>Routage du PCB, commande des composant et de la carte.</t>
+  </si>
+  <si>
+    <t>Somme des cafés</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -518,7 +524,7 @@
     <col min="6" max="16384" width="29.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -534,8 +540,11 @@
       <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -551,8 +560,12 @@
       <c r="E2" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <f>SUM(E2:E37)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -569,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -586,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -603,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -620,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -631,7 +644,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -642,7 +655,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -659,18 +672,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5">
         <v>45153</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -679,9 +698,11 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -692,7 +713,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -703,7 +724,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -714,7 +735,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -725,7 +746,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>DATE</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="F2" s="2">
         <f>SUM(E2:E37)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,9 +697,11 @@
         <v>45154</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,8 +712,12 @@
         <v>45155</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>DATE</t>
   </si>
@@ -83,10 +83,16 @@
     <t>Revue schéma et réunion avec Mr. Moreno. Début du routage du PCB.</t>
   </si>
   <si>
-    <t>Routage du PCB, commande des composant et de la carte.</t>
-  </si>
-  <si>
     <t>Somme des cafés</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport, partie Mécanique et PCB. Commande des composants</t>
+  </si>
+  <si>
+    <t>Routage du PCB, préparation commande des composant et de la carte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction du rapport, partie Mécanique et PCB. </t>
   </si>
 </sst>
 </file>
@@ -511,7 +517,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -541,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -680,7 +686,7 @@
         <v>45153</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>11</v>
@@ -696,7 +702,9 @@
       <c r="B11" s="5">
         <v>45154</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
@@ -711,7 +719,9 @@
       <c r="B12" s="5">
         <v>45155</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>11</v>
       </c>

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>DATE</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rédaction du rapport, partie Mécanique et PCB. </t>
+  </si>
+  <si>
+    <t>Avancement du code, protocol UBX, séance avec Mr. Moreno.</t>
   </si>
 </sst>
 </file>
@@ -516,8 +519,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -568,7 +571,7 @@
       </c>
       <c r="F2" s="2">
         <f>SUM(E2:E37)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,9 +739,15 @@
       <c r="B13" s="5">
         <v>45156</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -771,7 +780,9 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Avancement du code, protocol UBX, séance avec Mr. Moreno.</t>
+  </si>
+  <si>
+    <t>Commande Farnell et eurocircuit en retard.</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +128,14 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +163,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9F9F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -231,6 +252,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -240,6 +267,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9F9F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -520,7 +552,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -549,7 +581,7 @@
       <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -569,9 +601,9 @@
       <c r="E2" s="15">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,9 +811,11 @@
         <v>45159</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>DATE</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Commande Farnell et eurocircuit en retard.</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport, partie code, avancement général.</t>
+  </si>
+  <si>
+    <t>Exercice pompier</t>
   </si>
 </sst>
 </file>
@@ -551,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -603,7 +609,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,12 +816,14 @@
       <c r="B16" s="5">
         <v>45159</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,7 +845,9 @@
         <v>45161</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,7 +858,9 @@
         <v>45162</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -101,10 +101,10 @@
     <t>Commande Farnell et eurocircuit en retard.</t>
   </si>
   <si>
-    <t>Rédaction du rapport, partie code, avancement général.</t>
-  </si>
-  <si>
     <t>Exercice pompier</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport, partie code, avancement général du code.</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>24</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="15"/>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="15"/>
     </row>

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>DATE</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Rédaction du rapport, partie code, avancement général du code.</t>
+  </si>
+  <si>
+    <t>Avancement du code, fichier config, carte SD application, décodage NMEA, parsing fichier config.</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -609,7 +612,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -833,9 +836,15 @@
       <c r="B17" s="5">
         <v>45160</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>DATE</t>
   </si>
@@ -98,16 +98,16 @@
     <t>Avancement du code, protocol UBX, séance avec Mr. Moreno.</t>
   </si>
   <si>
-    <t>Commande Farnell et eurocircuit en retard.</t>
-  </si>
-  <si>
-    <t>Exercice pompier</t>
-  </si>
-  <si>
     <t>Rédaction du rapport, partie code, avancement général du code.</t>
   </si>
   <si>
     <t>Avancement du code, fichier config, carte SD application, décodage NMEA, parsing fichier config.</t>
+  </si>
+  <si>
+    <t>Vol UPS dérouté, RETARD LIVRAISON.</t>
+  </si>
+  <si>
+    <t>Commande Farnell et production eurocircuit en retard.</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,10 +820,10 @@
         <v>45159</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" s="15">
         <v>4</v>
@@ -837,7 +837,7 @@
         <v>45160</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
@@ -854,10 +854,12 @@
         <v>45161</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="15"/>
+      <c r="D18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -867,9 +869,7 @@
         <v>45162</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Activité</t>
   </si>
   <si>
-    <t>Problèmatique</t>
-  </si>
-  <si>
     <t>JOUR</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>Commande Farnell et production eurocircuit en retard.</t>
+  </si>
+  <si>
+    <t>Rédaction rapport partie code, et avancement général.</t>
+  </si>
+  <si>
+    <t>Commande des composants et du PCB</t>
+  </si>
+  <si>
+    <t>Evenement / problème</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +193,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -216,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,6 +279,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,7 +576,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -576,7 +591,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -585,27 +600,27 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
         <v>45145</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="15">
         <v>5</v>
@@ -617,16 +632,16 @@
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>45146</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="15">
         <v>2</v>
@@ -634,16 +649,16 @@
     </row>
     <row r="4" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5">
         <v>45147</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="15">
         <v>4</v>
@@ -651,16 +666,16 @@
     </row>
     <row r="5" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
         <v>45148</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="15">
         <v>3</v>
@@ -668,16 +683,16 @@
     </row>
     <row r="6" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5">
         <v>45149</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
@@ -685,7 +700,7 @@
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="10">
         <v>45150</v>
@@ -696,7 +711,7 @@
     </row>
     <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="10">
         <v>45151</v>
@@ -707,16 +722,16 @@
     </row>
     <row r="9" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5">
         <v>45152</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="15">
         <v>3</v>
@@ -724,16 +739,16 @@
     </row>
     <row r="10" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="5">
         <v>45153</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="15">
         <v>4</v>
@@ -741,16 +756,16 @@
     </row>
     <row r="11" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5">
         <v>45154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="15">
         <v>2</v>
@@ -758,16 +773,16 @@
     </row>
     <row r="12" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5">
         <v>45155</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
@@ -775,16 +790,16 @@
     </row>
     <row r="13" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5">
         <v>45156</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="15">
         <v>2</v>
@@ -792,7 +807,7 @@
     </row>
     <row r="14" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="10">
         <v>45157</v>
@@ -803,7 +818,7 @@
     </row>
     <row r="15" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="10">
         <v>45158</v>
@@ -814,16 +829,16 @@
     </row>
     <row r="16" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5">
         <v>45159</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="15">
         <v>4</v>
@@ -831,16 +846,16 @@
     </row>
     <row r="17" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="5">
         <v>45160</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="15">
         <v>4</v>
@@ -848,14 +863,16 @@
     </row>
     <row r="18" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="5">
         <v>45161</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -863,7 +880,7 @@
     </row>
     <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="5">
         <v>45162</v>
@@ -874,7 +891,7 @@
     </row>
     <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="5">
         <v>45163</v>
@@ -885,7 +902,7 @@
     </row>
     <row r="21" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="10">
         <v>45164</v>
@@ -896,7 +913,7 @@
     </row>
     <row r="22" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="10">
         <v>45165</v>
@@ -907,7 +924,7 @@
     </row>
     <row r="23" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5">
         <v>45166</v>
@@ -918,7 +935,7 @@
     </row>
     <row r="24" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="5">
         <v>45167</v>
@@ -929,7 +946,7 @@
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="5">
         <v>45168</v>
@@ -940,7 +957,7 @@
     </row>
     <row r="26" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="5">
         <v>45169</v>
@@ -951,7 +968,7 @@
     </row>
     <row r="27" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="5">
         <v>45170</v>
@@ -962,7 +979,7 @@
     </row>
     <row r="28" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="10">
         <v>45171</v>
@@ -973,7 +990,7 @@
     </row>
     <row r="29" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="10">
         <v>45172</v>
@@ -984,7 +1001,7 @@
     </row>
     <row r="30" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="5">
         <v>45173</v>
@@ -995,7 +1012,7 @@
     </row>
     <row r="31" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="5">
         <v>45174</v>
@@ -1006,7 +1023,7 @@
     </row>
     <row r="32" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="5">
         <v>45175</v>
@@ -1017,7 +1034,7 @@
     </row>
     <row r="33" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="5">
         <v>45176</v>
@@ -1028,7 +1045,7 @@
     </row>
     <row r="34" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="5">
         <v>45177</v>
@@ -1039,7 +1056,7 @@
     </row>
     <row r="35" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="10">
         <v>45178</v>
@@ -1050,7 +1067,7 @@
     </row>
     <row r="36" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="10">
         <v>45179</v>
@@ -1061,7 +1078,7 @@
     </row>
     <row r="37" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="5">
         <v>45180</v>

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -576,7 +576,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>DATE</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Evenement / problème</t>
+  </si>
+  <si>
+    <t>Farnell ne peux pas livrer la batterie.</t>
+  </si>
+  <si>
+    <t>Montage de la carte</t>
+  </si>
+  <si>
+    <t>Rapport et montage de la carte</t>
   </si>
 </sst>
 </file>
@@ -576,7 +585,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -627,7 +636,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,9 +894,15 @@
       <c r="B19" s="5">
         <v>45162</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -896,7 +911,9 @@
       <c r="B20" s="5">
         <v>45163</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="15"/>
     </row>

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>DATE</t>
   </si>
@@ -116,13 +116,16 @@
     <t>Evenement / problème</t>
   </si>
   <si>
-    <t>Farnell ne peux pas livrer la batterie.</t>
-  </si>
-  <si>
-    <t>Montage de la carte</t>
-  </si>
-  <si>
-    <t>Rapport et montage de la carte</t>
+    <t>Réception du PCB. Farnell ne peux pas livrer la batterie.</t>
+  </si>
+  <si>
+    <t>Réception boîtier du projet</t>
+  </si>
+  <si>
+    <t>Montage de la carte et programmation du firmware.</t>
+  </si>
+  <si>
+    <t>Rapport et montage de la carte.</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,6 +294,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -636,7 +642,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,13 +901,13 @@
         <v>45162</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,10 +918,14 @@
         <v>45163</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>DATE</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Rapport et montage de la carte.</t>
+  </si>
+  <si>
+    <t>Programmation du firmware, lecture/ecriture carte SD, gestion du fichier de config.</t>
+  </si>
+  <si>
+    <t>Programmation du firmware, gestion carte SD, centrale inertielle et GNSS.</t>
   </si>
 </sst>
 </file>
@@ -590,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,7 +648,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,9 +962,13 @@
       <c r="B23" s="5">
         <v>45166</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -967,9 +977,13 @@
       <c r="B24" s="5">
         <v>45167</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>DATE</t>
   </si>
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -965,7 +965,9 @@
       <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E23" s="15">
         <v>3</v>
       </c>
@@ -980,9 +982,11 @@
       <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E24" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>DATE</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Programmation du firmware, gestion carte SD, centrale inertielle et GNSS.</t>
+  </si>
+  <si>
+    <t>Avancement du code, communication avec l'appareil.</t>
+  </si>
+  <si>
+    <t>Avancement du code, communication avec l'appareil et configuration GNSS.</t>
   </si>
 </sst>
 </file>
@@ -596,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -648,7 +654,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,9 +1002,15 @@
       <c r="B25" s="5">
         <v>45168</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1007,9 +1019,15 @@
       <c r="B26" s="5">
         <v>45169</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>DATE</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>Avancement du code, communication avec l'appareil et configuration GNSS.</t>
+  </si>
+  <si>
+    <t>Avancement du code, système de veille. Documentation du rapport</t>
+  </si>
+  <si>
+    <t>Avancement du code, système de réveil, documentation.</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport, réception nouvelle antenne, modification du PCB, implémentation du connecteur MHF1.</t>
+  </si>
+  <si>
+    <t>L'antenne externe ne capte pas.</t>
+  </si>
+  <si>
+    <t>Avancement du rapport et recherche du problème.</t>
   </si>
 </sst>
 </file>
@@ -602,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -654,7 +669,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,9 +1051,15 @@
       <c r="B27" s="5">
         <v>45170</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -1069,9 +1090,15 @@
       <c r="B30" s="5">
         <v>45173</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1080,9 +1107,15 @@
       <c r="B31" s="5">
         <v>45174</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1091,9 +1124,15 @@
       <c r="B32" s="5">
         <v>45175</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>DATE</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>Avancement du rapport et recherche du problème.</t>
+  </si>
+  <si>
+    <t>Avancement de la documentation et corrections de bugs</t>
+  </si>
+  <si>
+    <t>Avancement de la documentation, corrections de bugs et développement d'une application.</t>
+  </si>
+  <si>
+    <t>Finalisation de la documentation.</t>
   </si>
 </sst>
 </file>
@@ -617,8 +626,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -669,7 +678,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1141,9 +1150,15 @@
       <c r="B33" s="5">
         <v>45176</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -1152,9 +1167,15 @@
       <c r="B34" s="5">
         <v>45177</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -1185,9 +1206,15 @@
       <c r="B37" s="5">
         <v>45180</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/journal/Journal.xlsx
+++ b/doc/journal/Journal.xlsx
@@ -626,7 +626,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -678,7 +678,7 @@
       </c>
       <c r="F2" s="16">
         <f>SUM(E2:E37)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
